--- a/data/trans_media/Q23-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q23-Provincia-trans_media.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 16,62</t>
+          <t>15,81; 16,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 17,56</t>
+          <t>16,27; 17,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 16,79</t>
+          <t>16,1; 16,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,8; 16,41</t>
+          <t>15,81; 16,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 16,61</t>
+          <t>15,82; 16,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 18,51</t>
+          <t>16,98; 18,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 18,16</t>
+          <t>16,72; 18,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,96</t>
+          <t>16,26; 16,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 17,02</t>
+          <t>16,3; 17,02</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 16,56</t>
+          <t>15,64; 16,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 17,2</t>
+          <t>16,27; 17,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 19,58</t>
+          <t>17,09; 19,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 18,4</t>
+          <t>16,9; 18,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 17,32</t>
+          <t>16,33; 17,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,48</t>
+          <t>16,68; 17,53</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 16,8</t>
+          <t>16,15; 16,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 16,8</t>
+          <t>16,09; 16,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,42</t>
+          <t>17,14; 18,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 19,37</t>
+          <t>17,83; 19,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,34</t>
+          <t>16,68; 17,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,6</t>
+          <t>16,87; 17,62</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,35</t>
+          <t>16,38; 17,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 17,67</t>
+          <t>16,04; 17,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 18,4</t>
+          <t>16,28; 18,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 17,89</t>
+          <t>16,45; 17,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,49; 17,54</t>
+          <t>16,5; 17,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,45</t>
+          <t>16,3; 17,45</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,9; 16,77</t>
+          <t>15,89; 16,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 17,08</t>
+          <t>15,89; 17,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 17,6</t>
+          <t>16,31; 17,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,07; 19,43</t>
+          <t>17,08; 19,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,89</t>
+          <t>16,15; 16,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,59</t>
+          <t>16,43; 17,61</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 16,76</t>
+          <t>16,06; 16,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,77</t>
+          <t>16,16; 16,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,4; 19,14</t>
+          <t>17,39; 19,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,95</t>
+          <t>16,91; 18,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,56</t>
+          <t>16,7; 17,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,54; 17,09</t>
+          <t>16,53; 17,07</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,97</t>
+          <t>16,17; 16,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,84</t>
+          <t>16,3; 16,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,52</t>
+          <t>16,69; 17,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,2</t>
+          <t>17,02; 18,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,08</t>
+          <t>16,44; 17,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,3</t>
+          <t>16,71; 17,31</t>
         </is>
       </c>
     </row>
@@ -1279,22 +1279,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,2; 16,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,61</t>
+          <t>16,32; 16,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,21; 17,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,4; 17,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,06</t>
+          <t>16,79; 17,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q23-Provincia-trans_media.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 16,63</t>
+          <t>15,82; 16,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,27; 17,57</t>
+          <t>16,25; 17,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 16,78</t>
+          <t>16,11; 16,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,81; 16,41</t>
+          <t>15,77; 16,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 16,59</t>
+          <t>15,84; 16,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,98; 18,42</t>
+          <t>17,03; 18,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 18,26</t>
+          <t>16,72; 18,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 16,92</t>
+          <t>16,28; 16,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 17,02</t>
+          <t>16,27; 17,03</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,64; 16,55</t>
+          <t>15,63; 16,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,27; 17,25</t>
+          <t>16,29; 17,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 19,51</t>
+          <t>17,09; 19,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 18,54</t>
+          <t>17,01; 18,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,33; 17,42</t>
+          <t>16,33; 17,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,53</t>
+          <t>16,67; 17,48</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 16,79</t>
+          <t>16,14; 16,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 16,76</t>
+          <t>16,08; 16,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 18,48</t>
+          <t>17,25; 18,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 19,52</t>
+          <t>17,73; 19,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,34</t>
+          <t>16,68; 17,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 17,62</t>
+          <t>16,85; 17,59</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,38; 17,34</t>
+          <t>16,35; 17,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,04; 17,51</t>
+          <t>15,96; 17,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,43</t>
+          <t>16,35; 18,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,9</t>
+          <t>16,54; 18,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,5; 17,57</t>
+          <t>16,48; 17,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,3; 17,45</t>
+          <t>16,32; 17,46</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 16,83</t>
+          <t>15,89; 16,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 17,15</t>
+          <t>15,88; 17,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,31; 17,57</t>
+          <t>16,37; 17,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 19,65</t>
+          <t>17,08; 19,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,15; 16,85</t>
+          <t>16,15; 16,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 17,61</t>
+          <t>16,47; 17,62</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,06; 16,79</t>
+          <t>16,05; 16,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,75</t>
+          <t>16,18; 16,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,39; 19,15</t>
+          <t>17,39; 19,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,91; 18,0</t>
+          <t>16,91; 17,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,53</t>
+          <t>16,68; 17,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,53; 17,07</t>
+          <t>16,55; 17,12</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,17; 16,97</t>
+          <t>16,16; 17,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,3; 16,85</t>
+          <t>16,32; 16,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,56</t>
+          <t>16,67; 17,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,02; 18,31</t>
+          <t>17,04; 18,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,03</t>
+          <t>16,42; 17,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,31</t>
+          <t>16,7; 17,28</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,2; 16,49</t>
+          <t>16,2; 16,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,61</t>
+          <t>16,33; 16,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,78</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,4; 17,96</t>
+          <t>17,4; 17,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
+          <t>16,63; 16,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,08</t>
+          <t>16,78; 17,06</t>
         </is>
       </c>
     </row>
